--- a/Running projects/Dolmen City Family Area/VO/Summary of VOs.xlsx
+++ b/Running projects/Dolmen City Family Area/VO/Summary of VOs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3C6142-6592-4032-88A9-7C59CCBAD770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389644E5-2008-4921-A285-349791611BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$27</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Sr #</t>
   </si>
@@ -68,14 +68,20 @@
   <si>
     <t>Variation order for Kids Commode</t>
   </si>
+  <si>
+    <t xml:space="preserve">Variation order for Fire Pipe </t>
+  </si>
+  <si>
+    <t>Variation order for AHU Thermostat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -232,7 +238,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -253,8 +259,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -266,13 +272,13 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -284,7 +290,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -320,13 +326,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>113550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -777,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:E27"/>
+  <dimension ref="A7:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -794,7 +800,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <f ca="1">TODAY()</f>
-        <v>45232</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.3">
@@ -896,38 +902,53 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-    </row>
-    <row r="23" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18" t="s">
+    <row r="22" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="19">
-        <f>SUM(C16:C22)</f>
+      <c r="C24" s="19">
+        <f>SUM(C16:C23)</f>
         <v>1365810.9350000001</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="8"/>
+    <row r="27" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>

--- a/Running projects/Dolmen City Family Area/VO/Summary of VOs.xlsx
+++ b/Running projects/Dolmen City Family Area/VO/Summary of VOs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389644E5-2008-4921-A285-349791611BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5F7356-12D5-4FCC-A2F1-91F6AC413926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -786,7 +786,7 @@
   <dimension ref="A7:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -800,7 +800,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <f ca="1">TODAY()</f>
-        <v>45339</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.3">
